--- a/ePICreator/Suliqua.xlsx
+++ b/ePICreator/Suliqua.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A0FCB2-28E8-DF4A-9C58-4D2A7C1565E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD381680-C8F6-784B-97DB-C1BFB0729EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="187">
   <si>
     <t>id</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>conceptID</t>
-  </si>
-  <si>
-    <t>0d69fdcb-33cf-407f-8209-a6529856ab4f</t>
   </si>
   <si>
     <t>https://spor.ema.europa.eu/rmswi/</t>
@@ -1893,7 +1890,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1910,7 +1907,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2267,28 +2264,28 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" s="10">
         <v>100000073863</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H2" s="10">
         <v>200000002135</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J2" s="9">
         <v>100000073633</v>
@@ -2339,28 +2336,28 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
         <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I1" t="s">
         <v>36</v>
       </c>
       <c r="J1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" t="s">
         <v>75</v>
-      </c>
-      <c r="K1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" t="s">
-        <v>76</v>
       </c>
       <c r="M1" t="s">
         <v>37</v>
@@ -2419,13 +2416,13 @@
         <v>43</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2437,7 +2434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A1B0E2-F796-B640-AFF9-FCC100C95224}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2478,19 +2475,19 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" t="s">
-        <v>159</v>
-      </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G2" s="4">
         <v>10020772</v>
@@ -2499,22 +2496,22 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2530,8 +2527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2557,37 +2554,37 @@
         <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
       </c>
       <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>82</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>83</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>84</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>85</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>86</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>87</v>
-      </c>
-      <c r="O1" t="s">
-        <v>88</v>
       </c>
       <c r="P1" t="s">
         <v>10</v>
@@ -2596,44 +2593,42 @@
     <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2677,13 +2672,13 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
-        <v>54</v>
-      </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -2701,7 +2696,7 @@
         <v>17</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
@@ -2710,10 +2705,10 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -2722,10 +2717,10 @@
         <v>72072</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -2734,16 +2729,16 @@
         <v>100</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -2752,10 +2747,10 @@
         <v>72072</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -2764,19 +2759,19 @@
         <v>50</v>
       </c>
       <c r="L3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -2790,16 +2785,16 @@
         <v>8</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -2813,16 +2808,16 @@
         <v>8</v>
       </c>
       <c r="M5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -2836,15 +2831,15 @@
         <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -2858,15 +2853,15 @@
         <v>8</v>
       </c>
       <c r="M7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -2880,15 +2875,15 @@
         <v>8</v>
       </c>
       <c r="M8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -2902,15 +2897,15 @@
         <v>8</v>
       </c>
       <c r="M9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -2924,7 +2919,7 @@
         <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2979,22 +2974,22 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" s="10">
         <v>200000002007</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H2" s="9">
         <v>200000002135</v>
@@ -3045,10 +3040,10 @@
         <v>40</v>
       </c>
       <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
         <v>127</v>
-      </c>
-      <c r="F1" t="s">
-        <v>128</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -3063,25 +3058,25 @@
         <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N1" t="s">
         <v>25</v>
       </c>
       <c r="O1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R1" t="s">
         <v>10</v>
@@ -3090,52 +3085,52 @@
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" t="s">
         <v>138</v>
       </c>
-      <c r="J2" t="s">
-        <v>139</v>
-      </c>
       <c r="K2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M2" t="s">
         <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P2" s="5">
         <v>100000072084</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3179,28 +3174,28 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" t="s">
         <v>66</v>
-      </c>
-      <c r="L1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" t="s">
-        <v>67</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
@@ -3209,10 +3204,10 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
         <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>107</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -3224,7 +3219,7 @@
         <v>220000000034</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
@@ -3233,33 +3228,33 @@
         <v>30</v>
       </c>
       <c r="J2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" t="s">
         <v>109</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>110</v>
-      </c>
-      <c r="M2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="10">
         <v>220000000033</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
         <v>29</v>
@@ -3268,36 +3263,36 @@
         <v>30</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L3" s="9">
         <v>65926</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="10">
         <v>220000000033</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H4" t="s">
         <v>29</v>
@@ -3306,36 +3301,36 @@
         <v>30</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L4" s="9">
         <v>65927</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" s="15">
         <v>220000000032</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H5" t="s">
         <v>29</v>
@@ -3344,16 +3339,16 @@
         <v>30</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="L5" s="11">
         <v>1083</v>
       </c>
       <c r="M5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3403,58 +3398,58 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J1" t="s">
         <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O1" t="s">
         <v>35</v>
       </c>
       <c r="P1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R1" t="s">
         <v>167</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>168</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>169</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>170</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>171</v>
-      </c>
-      <c r="V1" t="s">
-        <v>172</v>
       </c>
       <c r="W1" t="s">
         <v>10</v>
@@ -3463,16 +3458,16 @@
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -3481,13 +3476,13 @@
         <v>100000155527</v>
       </c>
       <c r="H2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" t="s">
         <v>97</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="J2" t="s">
-        <v>98</v>
       </c>
       <c r="K2" s="9">
         <v>100000073543</v>
@@ -3496,16 +3491,16 @@
         <v>5</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N2" s="9">
         <v>200000003204</v>
       </c>
       <c r="O2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3541,22 +3536,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
         <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -3565,10 +3560,10 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -3577,7 +3572,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
         <v>39</v>
@@ -3586,10 +3581,10 @@
         <v>100000072062</v>
       </c>
       <c r="I2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
